--- a/Database_sql_queries.xlsx
+++ b/Database_sql_queries.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuild502\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{967C12C1-6627-44A6-A0B4-FFACF1A586A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF94ACCE-E670-44D5-B140-513E9F99CAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{9D1438C3-8C10-45BC-A06D-37B66CFD9A27}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="5" xr2:uid="{9D1438C3-8C10-45BC-A06D-37B66CFD9A27}"/>
   </bookViews>
   <sheets>
     <sheet name="sales_fact" sheetId="1" r:id="rId1"/>
     <sheet name="customer_dim" sheetId="3" r:id="rId2"/>
     <sheet name="product_dim" sheetId="2" r:id="rId3"/>
     <sheet name="sales_office_data" sheetId="5" r:id="rId4"/>
-    <sheet name="Tips" sheetId="4" r:id="rId5"/>
+    <sheet name="agent_data" sheetId="6" r:id="rId5"/>
+    <sheet name="Tips" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Order_id</t>
   </si>
@@ -73,6 +75,54 @@
   </si>
   <si>
     <t>Product_Id</t>
+  </si>
+  <si>
+    <t>Customer_FirstName</t>
+  </si>
+  <si>
+    <t>Customer_lastName</t>
+  </si>
+  <si>
+    <t>Date_of_birth</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Complex_customer</t>
+  </si>
+  <si>
+    <t>Product1_owner</t>
+  </si>
+  <si>
+    <t>Product2_owner</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Product_warranty</t>
+  </si>
+  <si>
+    <t>Region_Id</t>
+  </si>
+  <si>
+    <t>Start_date_office</t>
+  </si>
+  <si>
+    <t>Sales_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joins can add data, have ways of verifying if the count after a join is in line with </t>
+  </si>
+  <si>
+    <t>Use intermediate tables with QA</t>
+  </si>
+  <si>
+    <t>Always label the source table in the select statement</t>
+  </si>
+  <si>
+    <t>Give understandable table aliases</t>
   </si>
 </sst>
 </file>
@@ -123,7 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,20 +491,20 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -470,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -478,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -486,22 +536,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,18 +574,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f ca="1">RAND()*1000000000</f>
-        <v>149247079.08090541</v>
+        <v>849407415.30898178</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" ref="B13:C17" ca="1" si="0">RAND()*1000000000</f>
-        <v>503603848.15172768</v>
+        <v>882072747.15342879</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>630763152.06763661</v>
+        <v>255582230.8576695</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -550,18 +600,18 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A17" ca="1" si="1">RAND()*1000000000</f>
-        <v>165660142.60319328</v>
+        <v>868818696.48536885</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>244203333.12738541</v>
+        <v>491441135.44541878</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>316189346.84482294</v>
+        <v>127509176.39111181</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -576,18 +626,18 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>868782861.05090714</v>
+        <v>106574276.61958607</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>361770073.61929667</v>
+        <v>770483620.38676703</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>780715035.6724627</v>
+        <v>561576787.23007393</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -602,18 +652,18 @@
         <v>44563</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>947698217.27865875</v>
+        <v>758749848.52171671</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>253004913.26341423</v>
+        <v>188573692.7064361</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>330103506.81714886</v>
+        <v>392396222.37169147</v>
       </c>
       <c r="D16">
         <v>71</v>
@@ -628,18 +678,18 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>235923608.44998273</v>
+        <v>257871695.9029521</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>380080961.38514227</v>
+        <v>692776873.3442229</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>32036047.332690831</v>
+        <v>683206292.55967903</v>
       </c>
       <c r="D17">
         <v>24</v>
@@ -662,63 +712,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71E5B51-0A44-492F-A665-1C5B30B25269}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87292EA-053F-4F89-99A3-C14D2CCDCDE6}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4132A-32CE-40F7-BF14-B52B0C2512F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C18AD9-8229-491A-A08E-14FFAA38491A}">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE971B9D-7F05-4DB1-812F-884BDFB32774}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C18AD9-8229-491A-A08E-14FFAA38491A}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>